--- a/outputs/ML_Results/carown_LR/All.xlsx
+++ b/outputs/ML_Results/carown_LR/All.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ45" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ23" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ0" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ14" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ12" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ26" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5045530493633994</v>
+        <v>-0.4880122031612621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7196464737000853</v>
+        <v>0.7286474871015428</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.452094493875566</v>
+        <v>1.479816461826258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2979705130695036</v>
+        <v>0.2891199531576686</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.597638773008961</v>
+        <v>1.640215831874857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2525947517838195</v>
+        <v>0.2404505224332446</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4056045031315272</v>
+        <v>0.4096590895110951</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7713354779731463</v>
+        <v>0.7692440218633331</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7548952561602627</v>
+        <v>0.7964764814070213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5885932313555635</v>
+        <v>0.5684482868542183</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9244708046482807</v>
+        <v>0.967269400261875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5079638973659096</v>
+        <v>0.488767093869972</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9218996373064026</v>
+        <v>-0.9730356291105452</v>
       </c>
       <c r="C8" t="n">
-        <v>1.770870896286648e-78</v>
+        <v>1.161445251769557e-85</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.036419027326928</v>
+        <v>-0.02940044673895806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.215760646997008</v>
+        <v>0.3217436668228671</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004742065893046094</v>
+        <v>0.0004733526299511167</v>
       </c>
       <c r="C10" t="n">
-        <v>3.159348690189301e-279</v>
+        <v>6.727879030249784e-277</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01446930164270253</v>
+        <v>0.01381387275428817</v>
       </c>
       <c r="C11" t="n">
-        <v>2.808361643700436e-33</v>
+        <v>1.444783897099198e-30</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02398682774087902</v>
+        <v>-0.01365180381261417</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4617478458126276</v>
+        <v>0.6762174638154761</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5352633635020382</v>
+        <v>0.5036368178959814</v>
       </c>
       <c r="C13" t="n">
-        <v>3.998632548504593e-29</v>
+        <v>4.886228686555402e-26</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3077481139755646</v>
+        <v>0.3333802403309507</v>
       </c>
       <c r="C14" t="n">
-        <v>9.130518389058211e-07</v>
+        <v>1.032439750450374e-07</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.734750295893573e-05</v>
+        <v>-8.615281803019097e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>1.098130462676827e-122</v>
+        <v>3.093153265388618e-120</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.459220671101387e-08</v>
+        <v>-2.797812371796436e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>5.120870837615769e-05</v>
+        <v>4.156198895328015e-06</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.005805379021708087</v>
+        <v>-0.003841504453961734</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5359824313742523</v>
+        <v>0.6837851116828637</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.009719843457117398</v>
+        <v>0.008126252138810424</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0326278588888256</v>
+        <v>0.07541565499563781</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3206440518622636</v>
+        <v>-0.2291388832192092</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03868155073453686</v>
+        <v>0.140745723160552</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001505143328866863</v>
+        <v>-0.002277171878009789</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2509740991792092</v>
+        <v>0.08268327397620176</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002940928920327488</v>
+        <v>-0.002521511694861782</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002194635936401183</v>
+        <v>0.009783810701730981</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2615837357712461</v>
+        <v>0.2786342344710785</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01950244889978341</v>
+        <v>0.01287648553657586</v>
       </c>
     </row>
     <row r="23">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.337043366029244</v>
+        <v>-1.266370137570831</v>
       </c>
       <c r="C23" t="n">
-        <v>1.51521712511573e-18</v>
+        <v>1.019761397334875e-16</v>
       </c>
     </row>
   </sheetData>
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4473311645671063</v>
+        <v>-0.5846909124015454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7490546036739576</v>
+        <v>0.6777008371137188</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.489895158104585</v>
+        <v>1.444960937984336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2830183690430976</v>
+        <v>0.3007052522876714</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.613114230996586</v>
+        <v>1.56654364008705</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2455294133163317</v>
+        <v>0.2622958148178758</v>
       </c>
     </row>
     <row r="5">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4299279408134177</v>
+        <v>0.4044570196396914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7567950496922526</v>
+        <v>0.7721280041415856</v>
       </c>
     </row>
     <row r="6">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8039182643734963</v>
+        <v>0.7661707960145322</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5625486835054065</v>
+        <v>0.5833138435081039</v>
       </c>
     </row>
     <row r="7">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9477068086354892</v>
+        <v>0.9158734819991218</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4950764236194359</v>
+        <v>0.5122141797386963</v>
       </c>
     </row>
     <row r="8">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9259996826032157</v>
+        <v>-0.9424796840693702</v>
       </c>
       <c r="C8" t="n">
-        <v>1.990479767749579e-79</v>
+        <v>1.652142662437123e-81</v>
       </c>
     </row>
     <row r="9">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02599309168637665</v>
+        <v>-0.02134676229257329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.374557979411325</v>
+        <v>0.4657307123805785</v>
       </c>
     </row>
     <row r="10">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004709938775635706</v>
+        <v>0.0004741181047897363</v>
       </c>
       <c r="C10" t="n">
-        <v>1.045021847323884e-274</v>
+        <v>1.885853749149826e-279</v>
       </c>
     </row>
     <row r="11">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01321142481808988</v>
+        <v>0.01436504752856583</v>
       </c>
       <c r="C11" t="n">
-        <v>4.328075679572766e-28</v>
+        <v>1.359699764003279e-32</v>
       </c>
     </row>
     <row r="12">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.005730146769219639</v>
+        <v>-0.02234320663632441</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8601824651271484</v>
+        <v>0.4921505245796992</v>
       </c>
     </row>
     <row r="13">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5076889619999084</v>
+        <v>0.542006572091428</v>
       </c>
       <c r="C13" t="n">
-        <v>1.532280360925333e-26</v>
+        <v>8.291562187428217e-30</v>
       </c>
     </row>
     <row r="14">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.320770274619881</v>
+        <v>0.3101048239091186</v>
       </c>
       <c r="C14" t="n">
-        <v>2.964189142525696e-07</v>
+        <v>8.368105541132759e-07</v>
       </c>
     </row>
     <row r="15">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.709864226671874e-05</v>
+        <v>-8.635378178465058e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>9.17096723162453e-123</v>
+        <v>1.061578567145489e-121</v>
       </c>
     </row>
     <row r="16">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.469240660212969e-08</v>
+        <v>-2.585069749769994e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>4.760831668240359e-05</v>
+        <v>1.907895027369982e-05</v>
       </c>
     </row>
     <row r="17">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.004956517937100473</v>
+        <v>-0.0003949422215498099</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5971273097738279</v>
+        <v>0.9664972184482493</v>
       </c>
     </row>
     <row r="18">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008561020070391626</v>
+        <v>0.007626587323815446</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05965068210449407</v>
+        <v>0.09473595454258309</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3145225305478908</v>
+        <v>-0.3078565926752542</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04177474193282996</v>
+        <v>0.04710383371398926</v>
       </c>
     </row>
     <row r="20">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002465597578532371</v>
+        <v>-0.001898407902286499</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05866442901083176</v>
+        <v>0.1461404435083506</v>
       </c>
     </row>
     <row r="21">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003086487772134164</v>
+        <v>-0.002312801465220842</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001334638829663222</v>
+        <v>0.01714769789908011</v>
       </c>
     </row>
     <row r="22">
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3223775238232254</v>
+        <v>0.2892754426456127</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003955739541263188</v>
+        <v>0.009728943817536201</v>
       </c>
     </row>
     <row r="23">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.339268217661366</v>
+        <v>-1.316460325972469</v>
       </c>
       <c r="C23" t="n">
-        <v>9.625089250246313e-19</v>
+        <v>5.787308406247869e-18</v>
       </c>
     </row>
   </sheetData>
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-27.69498413338948</v>
+        <v>-0.4515113918168047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999807170753429</v>
+        <v>0.7472946643913245</v>
       </c>
     </row>
     <row r="3">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.69346818962265</v>
+        <v>1.479602222342061</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999980021870293</v>
+        <v>0.2873432351605903</v>
       </c>
     </row>
     <row r="4">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.86110331670686</v>
+        <v>1.606732932629121</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999799051525686</v>
+        <v>0.2483748253326775</v>
       </c>
     </row>
     <row r="5">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.63172923323918</v>
+        <v>0.4399431677256592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999807611172339</v>
+        <v>0.7518061057575607</v>
       </c>
     </row>
     <row r="6">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.01792754316833</v>
+        <v>0.8134791393560153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999804922225894</v>
+        <v>0.5587173435222681</v>
       </c>
     </row>
     <row r="7">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.18222876101621</v>
+        <v>0.9452917785985507</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999803778261345</v>
+        <v>0.4970551630920507</v>
       </c>
     </row>
     <row r="8">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9508608754812671</v>
+        <v>-0.936911250411516</v>
       </c>
       <c r="C8" t="n">
-        <v>1.891614609244926e-83</v>
+        <v>6.003376978387356e-81</v>
       </c>
     </row>
     <row r="9">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.03243527555015691</v>
+        <v>-0.01009200536919336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2670373110442191</v>
+        <v>0.7333345542898415</v>
       </c>
     </row>
     <row r="10">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004728813115129433</v>
+        <v>0.000471883694123095</v>
       </c>
       <c r="C10" t="n">
-        <v>2.292137223948857e-279</v>
+        <v>3.636792302777245e-274</v>
       </c>
     </row>
     <row r="11">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01416905956819098</v>
+        <v>0.01426159663728184</v>
       </c>
       <c r="C11" t="n">
-        <v>3.925527506631506e-32</v>
+        <v>3.281875657787193e-32</v>
       </c>
     </row>
     <row r="12">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02221499265916297</v>
+        <v>-0.02265054641412661</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4950307028015677</v>
+        <v>0.48830853225848</v>
       </c>
     </row>
     <row r="13">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4952825278905712</v>
+        <v>0.4971760022620038</v>
       </c>
       <c r="C13" t="n">
-        <v>2.453864279819234e-25</v>
+        <v>3.324913327234048e-25</v>
       </c>
     </row>
     <row r="14">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3095783568021601</v>
+        <v>0.2815902264203763</v>
       </c>
       <c r="C14" t="n">
-        <v>8.046578093788245e-07</v>
+        <v>7.2465427074896e-06</v>
       </c>
     </row>
     <row r="15">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.80957412107895e-05</v>
+        <v>-8.913170257289354e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>4.430176284793463e-125</v>
+        <v>2.049542321833672e-126</v>
       </c>
     </row>
     <row r="16">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.501088109758564e-08</v>
+        <v>-2.574404174377836e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>3.837541925952345e-05</v>
+        <v>2.564441242813466e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.006974501686586336</v>
+        <v>-0.001276152295300686</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4557358062922978</v>
+        <v>0.892149054391828</v>
       </c>
     </row>
     <row r="18">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005576940379805748</v>
+        <v>0.007622350298393036</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2181031662072881</v>
+        <v>0.09428439861743973</v>
       </c>
     </row>
     <row r="19">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2474551665680964</v>
+        <v>-0.3290705529393358</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1102459398938768</v>
+        <v>0.0336621676317673</v>
       </c>
     </row>
     <row r="20">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.00264708928344548</v>
+        <v>-0.002158491131800021</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04199099585711195</v>
+        <v>0.0993962287205105</v>
       </c>
     </row>
     <row r="21">
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002627290534581711</v>
+        <v>-0.003349492897618395</v>
       </c>
       <c r="C21" t="n">
-        <v>0.006417874452070308</v>
+        <v>0.0005030801492277313</v>
       </c>
     </row>
     <row r="22">
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3697417536497387</v>
+        <v>0.2992777855171825</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000974058616359954</v>
+        <v>0.007737722752168298</v>
       </c>
     </row>
     <row r="23">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.336498476912966</v>
+        <v>-1.274592054844675</v>
       </c>
       <c r="C23" t="n">
-        <v>1.370978806549782e-18</v>
+        <v>7.667180338598119e-17</v>
       </c>
     </row>
   </sheetData>
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4797138850984309</v>
+        <v>-0.4508327181839333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7329785885805138</v>
+        <v>0.7474398014856924</v>
       </c>
     </row>
     <row r="3">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.438887909492828</v>
+        <v>1.455557766043236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3024939951927045</v>
+        <v>0.2948439889542507</v>
       </c>
     </row>
     <row r="4">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.604037476149641</v>
+        <v>1.59082930574178</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2508121034232571</v>
+        <v>0.2526927003758334</v>
       </c>
     </row>
     <row r="5">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3715587267677115</v>
+        <v>0.4397386256876863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7901052883382917</v>
+        <v>0.7517175737642008</v>
       </c>
     </row>
     <row r="6">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7663648926288025</v>
+        <v>0.7960443935586843</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5830244336733599</v>
+        <v>0.5668503403839649</v>
       </c>
     </row>
     <row r="7">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9002790130270746</v>
+        <v>0.9120172383348031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5192159476227161</v>
+        <v>0.5119602058426292</v>
       </c>
     </row>
     <row r="8">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9621477660871423</v>
+        <v>-0.931079492591969</v>
       </c>
       <c r="C8" t="n">
-        <v>1.080583492772148e-84</v>
+        <v>8.469033964428256e-81</v>
       </c>
     </row>
     <row r="9">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02822509858841715</v>
+        <v>-0.01745618322618092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3369912550628013</v>
+        <v>0.5558270171536515</v>
       </c>
     </row>
     <row r="10">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004742340577008115</v>
+        <v>0.0004733050462993309</v>
       </c>
       <c r="C10" t="n">
-        <v>4.278636147653764e-279</v>
+        <v>1.064783004717452e-278</v>
       </c>
     </row>
     <row r="11">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01397602592093648</v>
+        <v>0.01419037938936045</v>
       </c>
       <c r="C11" t="n">
-        <v>3.924219005105142e-31</v>
+        <v>3.134081790794466e-32</v>
       </c>
     </row>
     <row r="12">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02706250370588562</v>
+        <v>-0.003621798961667048</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4063124178421965</v>
+        <v>0.9112314350634676</v>
       </c>
     </row>
     <row r="13">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5124821661208271</v>
+        <v>0.4811038812920579</v>
       </c>
       <c r="C13" t="n">
-        <v>1.220206171134833e-26</v>
+        <v>6.123246548671239e-24</v>
       </c>
     </row>
     <row r="14">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3209915377763078</v>
+        <v>0.2839667865652621</v>
       </c>
       <c r="C14" t="n">
-        <v>3.295471528209085e-07</v>
+        <v>5.606406687858038e-06</v>
       </c>
     </row>
     <row r="15">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.77395149237454e-05</v>
+        <v>-8.811843655434195e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>9.006120574587252e-124</v>
+        <v>1.30707030244443e-124</v>
       </c>
     </row>
     <row r="16">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.300202262593661e-08</v>
+        <v>-2.087132621942448e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001582435110293317</v>
+        <v>0.0006206716864414262</v>
       </c>
     </row>
     <row r="17">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0006175640184665513</v>
+        <v>-0.009990824687531579</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9476730480074224</v>
+        <v>0.2851889682399498</v>
       </c>
     </row>
     <row r="18">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.007963251858165632</v>
+        <v>0.01031476919018794</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08054127681599355</v>
+        <v>0.02313799018171783</v>
       </c>
     </row>
     <row r="19">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3794235598585533</v>
+        <v>-0.4167591544044376</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01400522102042982</v>
+        <v>0.0071041072902362</v>
       </c>
     </row>
     <row r="20">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002574638063388764</v>
+        <v>-0.002769390757416895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0486740627766374</v>
+        <v>0.03284452188886625</v>
       </c>
     </row>
     <row r="21">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002635178870107467</v>
+        <v>-0.003113370944127009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.006321761193562568</v>
+        <v>0.00118158615461017</v>
       </c>
     </row>
     <row r="22">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3454320539303199</v>
+        <v>0.3155320858593825</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002026320667260524</v>
+        <v>0.004687233701433439</v>
       </c>
     </row>
     <row r="23">
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.292365127644115</v>
+        <v>-1.344065569206817</v>
       </c>
       <c r="C23" t="n">
-        <v>2.327413043409854e-17</v>
+        <v>1.040937203830499e-18</v>
       </c>
     </row>
   </sheetData>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03104182603546627</v>
+        <v>-0.428048148120693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9849125311440234</v>
+        <v>0.761229609589734</v>
       </c>
     </row>
     <row r="3">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.007336522583772</v>
+        <v>1.493741815319426</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5372273278782294</v>
+        <v>0.2853393718510976</v>
       </c>
     </row>
     <row r="4">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.189389532665992</v>
+        <v>1.648967720818561</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4665985676437289</v>
+        <v>0.2386668796713027</v>
       </c>
     </row>
     <row r="5">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0471417720292797</v>
+        <v>0.4286747840450449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9769693459762488</v>
+        <v>0.75921454548371</v>
       </c>
     </row>
     <row r="6">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3043302355259128</v>
+        <v>0.7972129724430623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8521639988306295</v>
+        <v>0.5686811562673749</v>
       </c>
     </row>
     <row r="7">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4771574612059242</v>
+        <v>0.905403414920559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7702258625281158</v>
+        <v>0.5176304666244815</v>
       </c>
     </row>
     <row r="8">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9656296024057057</v>
+        <v>-0.9551067945721655</v>
       </c>
       <c r="C8" t="n">
-        <v>3.092057493403674e-85</v>
+        <v>1.162958978268261e-83</v>
       </c>
     </row>
     <row r="9">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.04438938386991682</v>
+        <v>-0.03001785414848395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1323190659129283</v>
+        <v>0.3130662873080788</v>
       </c>
     </row>
     <row r="10">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004795047040241634</v>
+        <v>0.0004759717316390609</v>
       </c>
       <c r="C10" t="n">
-        <v>1.252778110880605e-281</v>
+        <v>1.862508964233447e-279</v>
       </c>
     </row>
     <row r="11">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01419930320779575</v>
+        <v>0.01416176096206556</v>
       </c>
       <c r="C11" t="n">
-        <v>6.635813705838187e-32</v>
+        <v>8.413518979737859e-32</v>
       </c>
     </row>
     <row r="12">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.009593334717949636</v>
+        <v>-0.01093319488950638</v>
       </c>
       <c r="C12" t="n">
-        <v>0.768769829148426</v>
+        <v>0.7373583172272131</v>
       </c>
     </row>
     <row r="13">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5170500507087153</v>
+        <v>0.5119118974531289</v>
       </c>
       <c r="C13" t="n">
-        <v>2.524184308819e-27</v>
+        <v>9.600343086188845e-27</v>
       </c>
     </row>
     <row r="14">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3155464453484537</v>
+        <v>0.3237471696379728</v>
       </c>
       <c r="C14" t="n">
-        <v>5.2745318516712e-07</v>
+        <v>2.589389182317663e-07</v>
       </c>
     </row>
     <row r="15">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.486729220128208e-05</v>
+        <v>-8.705383054994656e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>2.081974400381153e-117</v>
+        <v>3.515789631154e-123</v>
       </c>
     </row>
     <row r="16">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.847861930220465e-08</v>
+        <v>-2.655426191913522e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>2.650835548712439e-06</v>
+        <v>1.21617630540638e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0071449017564725</v>
+        <v>-0.01073424955550827</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4480510047368754</v>
+        <v>0.2540712304337763</v>
       </c>
     </row>
     <row r="18">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.007317719041886969</v>
+        <v>0.006771559419203333</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1084200664478047</v>
+        <v>0.1375118002758065</v>
       </c>
     </row>
     <row r="19">
@@ -1975,10 +1975,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3160081026144033</v>
+        <v>-0.2584275662380027</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04279828190922181</v>
+        <v>0.09704642079899073</v>
       </c>
     </row>
     <row r="20">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002873091373901386</v>
+        <v>-0.002726013708958043</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02797214993130864</v>
+        <v>0.03693471375667558</v>
       </c>
     </row>
     <row r="21">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002845522639526693</v>
+        <v>-0.003038755033038664</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003198494522570969</v>
+        <v>0.001589666382539715</v>
       </c>
     </row>
     <row r="22">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3092850338234812</v>
+        <v>0.3200253737452708</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005864641021633226</v>
+        <v>0.004406267260074716</v>
       </c>
     </row>
     <row r="23">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.222776066387149</v>
+        <v>-1.343578242062022</v>
       </c>
       <c r="C23" t="n">
-        <v>1.280850033615002e-15</v>
+        <v>1.329719546795203e-18</v>
       </c>
     </row>
   </sheetData>
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5027623937147672</v>
+        <v>-27.49731158426318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7203672398777512</v>
+        <v>0.9999834897368655</v>
       </c>
     </row>
     <row r="3">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.47729384016441</v>
+        <v>28.51613721831615</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2892410489788576</v>
+        <v>0.9999828780014508</v>
       </c>
     </row>
     <row r="4">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.60838308435951</v>
+        <v>28.71110766138181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2490105556497723</v>
+        <v>0.9999827609349765</v>
       </c>
     </row>
     <row r="5">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4098973612602608</v>
+        <v>27.4319884967579</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7687879987935435</v>
+        <v>0.9999835289589312</v>
       </c>
     </row>
     <row r="6">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7889964364072032</v>
+        <v>27.81754409696476</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5715270751448298</v>
+        <v>0.9999832974590483</v>
       </c>
     </row>
     <row r="7">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.907141564760192</v>
+        <v>27.95877698772397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5155734788565135</v>
+        <v>0.9999832126583149</v>
       </c>
     </row>
     <row r="8">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9362318203324037</v>
+        <v>-0.9280025977625102</v>
       </c>
       <c r="C8" t="n">
-        <v>5.856210150242873e-81</v>
+        <v>1.460230974935493e-79</v>
       </c>
     </row>
     <row r="9">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01648462931798524</v>
+        <v>-0.04281391615603714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5767631778286831</v>
+        <v>0.1445362618020173</v>
       </c>
     </row>
     <row r="10">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004687861608639921</v>
+        <v>0.00047137098498572</v>
       </c>
       <c r="C10" t="n">
-        <v>4.84412522881187e-273</v>
+        <v>4.968081335995662e-275</v>
       </c>
     </row>
     <row r="11">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01416559334545572</v>
+        <v>0.01397553000385186</v>
       </c>
       <c r="C11" t="n">
-        <v>5.589726654321263e-32</v>
+        <v>3.433390548618574e-31</v>
       </c>
     </row>
     <row r="12">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.006530793722870737</v>
+        <v>-0.003308709745583934</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8409874179393984</v>
+        <v>0.9192690897084724</v>
       </c>
     </row>
     <row r="13">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5102417397913931</v>
+        <v>0.5324976311351854</v>
       </c>
       <c r="C13" t="n">
-        <v>2.122491360658269e-26</v>
+        <v>9.957124820575702e-29</v>
       </c>
     </row>
     <row r="14">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3134078312712225</v>
+        <v>0.3455250158121592</v>
       </c>
       <c r="C14" t="n">
-        <v>6.16862774396064e-07</v>
+        <v>3.965109746747949e-08</v>
       </c>
     </row>
     <row r="15">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.541617923725996e-05</v>
+        <v>-8.727195123302663e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>8.599721644038473e-118</v>
+        <v>1.777042699735296e-122</v>
       </c>
     </row>
     <row r="16">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.881167845328366e-08</v>
+        <v>-2.584303133800909e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>2.141357701517877e-06</v>
+        <v>2.11098763991673e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.003488266503897835</v>
+        <v>0.001325857633335538</v>
       </c>
       <c r="C17" t="n">
-        <v>0.709643314940239</v>
+        <v>0.8880301967191543</v>
       </c>
     </row>
     <row r="18">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.007006535028566336</v>
+        <v>0.007296815413945961</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1235603816546191</v>
+        <v>0.1086258474237977</v>
       </c>
     </row>
     <row r="19">
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.362361756118329</v>
+        <v>-0.3316865638556841</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01917767244290505</v>
+        <v>0.03233188179171679</v>
       </c>
     </row>
     <row r="20">
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002063962520890791</v>
+        <v>-0.002053970992024482</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1126356633311616</v>
+        <v>0.1164010439414078</v>
       </c>
     </row>
     <row r="21">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002984425753870206</v>
+        <v>-0.003334639268071433</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001969624824753634</v>
+        <v>0.0005058522150973957</v>
       </c>
     </row>
     <row r="22">
@@ -2336,10 +2336,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3089206273166329</v>
+        <v>0.3501390960251915</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005608720998849989</v>
+        <v>0.001796655339160208</v>
       </c>
     </row>
     <row r="23">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.257240963766485</v>
+        <v>-1.348488878331573</v>
       </c>
       <c r="C23" t="n">
-        <v>1.580294016203306e-16</v>
+        <v>7.723202948019559e-19</v>
       </c>
     </row>
   </sheetData>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.002054508790027239</v>
+        <v>-0.07289756272879309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989987399646841</v>
+        <v>0.9645574900910201</v>
       </c>
     </row>
     <row r="3">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.011951889046264</v>
+        <v>0.9697090261340318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5341639197055434</v>
+        <v>0.5521944609764449</v>
       </c>
     </row>
     <row r="4">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.110923503456118</v>
+        <v>1.055563154010543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4952466119840956</v>
+        <v>0.5178490936627131</v>
       </c>
     </row>
     <row r="5">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01438270218475338</v>
+        <v>-0.06398741308414431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9929520814424914</v>
+        <v>0.9687170446848367</v>
       </c>
     </row>
     <row r="6">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3356674239241187</v>
+        <v>0.3221963734512808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8366771934404507</v>
+        <v>0.8434655485107029</v>
       </c>
     </row>
     <row r="7">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4287272611516103</v>
+        <v>0.4240395799757882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.792399490039305</v>
+        <v>0.7950385479317433</v>
       </c>
     </row>
     <row r="8">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9475435912034154</v>
+        <v>-0.9440237689040524</v>
       </c>
       <c r="C8" t="n">
-        <v>2.898082755064159e-82</v>
+        <v>3.27536401261169e-82</v>
       </c>
     </row>
     <row r="9">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01676712860388831</v>
+        <v>0.002775954548239248</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5732915721023872</v>
+        <v>0.9253464643002193</v>
       </c>
     </row>
     <row r="10">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000477436302177957</v>
+        <v>0.000475256494330387</v>
       </c>
       <c r="C10" t="n">
-        <v>1.005668160129978e-280</v>
+        <v>1.784688305764598e-280</v>
       </c>
     </row>
     <row r="11">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01354118684609651</v>
+        <v>0.01354094399832419</v>
       </c>
       <c r="C11" t="n">
-        <v>3.365350198147499e-29</v>
+        <v>1.780320494603345e-29</v>
       </c>
     </row>
     <row r="12">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01319549721727655</v>
+        <v>-0.02081880209460081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6854844858035813</v>
+        <v>0.5213673190434864</v>
       </c>
     </row>
     <row r="13">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5171996136007451</v>
+        <v>0.5240695133179825</v>
       </c>
       <c r="C13" t="n">
-        <v>2.22566996507781e-27</v>
+        <v>3.909994307988584e-28</v>
       </c>
     </row>
     <row r="14">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3086683519909257</v>
+        <v>0.3372480418827399</v>
       </c>
       <c r="C14" t="n">
-        <v>8.69339240679486e-07</v>
+        <v>6.573629186004137e-08</v>
       </c>
     </row>
     <row r="15">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.933358526484776e-05</v>
+        <v>-8.42097456045395e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>1.992551304920722e-129</v>
+        <v>6.807310240397344e-116</v>
       </c>
     </row>
     <row r="16">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.14698075115595e-08</v>
+        <v>-2.651169107069923e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000383724037506102</v>
+        <v>1.090771171900727e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.006752954979132565</v>
+        <v>-0.005756269499629059</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4719746919223806</v>
+        <v>0.537021458569253</v>
       </c>
     </row>
     <row r="18">
@@ -2606,10 +2606,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008930129998995362</v>
+        <v>0.006913314321645856</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05024659840967279</v>
+        <v>0.1259919438439512</v>
       </c>
     </row>
     <row r="19">
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1615256328224683</v>
+        <v>-0.3131936687845469</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2994339923746735</v>
+        <v>0.04221825180317981</v>
       </c>
     </row>
     <row r="20">
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002539923573661395</v>
+        <v>-0.002806460323901893</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05182521620044932</v>
+        <v>0.03193067854152953</v>
       </c>
     </row>
     <row r="21">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002932647796024301</v>
+        <v>-0.002795780772833397</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002408232891149422</v>
+        <v>0.003776074224717104</v>
       </c>
     </row>
     <row r="22">
@@ -2658,10 +2658,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.310746929149373</v>
+        <v>0.3759798681760267</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005662420855392519</v>
+        <v>0.0007634868708269798</v>
       </c>
     </row>
     <row r="23">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.370489166824536</v>
+        <v>-1.206149162543376</v>
       </c>
       <c r="C23" t="n">
-        <v>2.179803047048124e-19</v>
+        <v>1.798133782567786e-15</v>
       </c>
     </row>
   </sheetData>
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.563728068227872</v>
+        <v>-0.4792603873696748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6878858732966433</v>
+        <v>0.7323491834501564</v>
       </c>
     </row>
     <row r="3">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.460110499493452</v>
+        <v>1.457030185677011</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2944222393241777</v>
+        <v>0.2948552374003376</v>
       </c>
     </row>
     <row r="4">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.583284669798319</v>
+        <v>1.59309641503219</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2560199574488067</v>
+        <v>0.2525001095264567</v>
       </c>
     </row>
     <row r="5">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4521650582674488</v>
+        <v>0.416223275553827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7454956077391063</v>
+        <v>0.7648263647276269</v>
       </c>
     </row>
     <row r="6">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8186146837200464</v>
+        <v>0.7847465928947327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5567974561793162</v>
+        <v>0.5727650397020831</v>
       </c>
     </row>
     <row r="7">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8982230302745678</v>
+        <v>0.9007658795730982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5193068869920003</v>
+        <v>0.5176145813406545</v>
       </c>
     </row>
     <row r="8">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.948396033713471</v>
+        <v>-0.9394386407241575</v>
       </c>
       <c r="C8" t="n">
-        <v>1.821302051755576e-82</v>
+        <v>5.732841214480395e-82</v>
       </c>
     </row>
     <row r="9">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003562139322958196</v>
+        <v>-0.02182103343026649</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9047682651517821</v>
+        <v>0.4570255878425282</v>
       </c>
     </row>
     <row r="10">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004723108813612708</v>
+        <v>0.0004739971482931949</v>
       </c>
       <c r="C10" t="n">
-        <v>2.394584371897484e-276</v>
+        <v>3.621832979304007e-278</v>
       </c>
     </row>
     <row r="11">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0138740750772546</v>
+        <v>0.01367917068793803</v>
       </c>
       <c r="C11" t="n">
-        <v>7.060936953369369e-31</v>
+        <v>5.240697740303948e-30</v>
       </c>
     </row>
     <row r="12">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02323783716417547</v>
+        <v>-0.01355858961557549</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4751647587147303</v>
+        <v>0.6766297769682892</v>
       </c>
     </row>
     <row r="13">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5047155957599931</v>
+        <v>0.5267437646182241</v>
       </c>
       <c r="C13" t="n">
-        <v>3.094435589896195e-26</v>
+        <v>1.806291462611307e-28</v>
       </c>
     </row>
     <row r="14">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3185758887426117</v>
+        <v>0.3267942451547777</v>
       </c>
       <c r="C14" t="n">
-        <v>3.275372303505589e-07</v>
+        <v>1.782960692046908e-07</v>
       </c>
     </row>
     <row r="15">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.837847654729755e-05</v>
+        <v>-8.990648881164981e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>5.81324995871301e-126</v>
+        <v>3.468231718600803e-130</v>
       </c>
     </row>
     <row r="16">
@@ -2902,10 +2902,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.398438387319763e-08</v>
+        <v>-2.031674073637481e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>8.22714440677461e-05</v>
+        <v>0.0008309047390889242</v>
       </c>
     </row>
     <row r="17">
@@ -2915,10 +2915,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.001096024579074487</v>
+        <v>-0.007652747692349512</v>
       </c>
       <c r="C17" t="n">
-        <v>0.907333279188428</v>
+        <v>0.4148859565421865</v>
       </c>
     </row>
     <row r="18">
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006194014236383737</v>
+        <v>0.009204126307940002</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1736966023619486</v>
+        <v>0.04278822638438436</v>
       </c>
     </row>
     <row r="19">
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.358438899974242</v>
+        <v>-0.3825551730774625</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02035475034305385</v>
+        <v>0.01341310288424599</v>
       </c>
     </row>
     <row r="20">
@@ -2954,10 +2954,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002099640207631517</v>
+        <v>-0.0019239233105901</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1084897094051484</v>
+        <v>0.1381712434264285</v>
       </c>
     </row>
     <row r="21">
@@ -2967,10 +2967,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002642405165478787</v>
+        <v>-0.002963909043792117</v>
       </c>
       <c r="C21" t="n">
-        <v>0.006270218690260165</v>
+        <v>0.001856651228017469</v>
       </c>
     </row>
     <row r="22">
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3506597038270953</v>
+        <v>0.3177501553737206</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00174090864075024</v>
+        <v>0.004534146043038457</v>
       </c>
     </row>
     <row r="23">
@@ -2993,10 +2993,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.276693294681141</v>
+        <v>-1.330331967684469</v>
       </c>
       <c r="C23" t="n">
-        <v>5.821742764994118e-17</v>
+        <v>2.184695808996099e-18</v>
       </c>
     </row>
   </sheetData>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4932497357655</v>
+        <v>-0.03576888172039659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7261014205143912</v>
+        <v>0.9825066802492877</v>
       </c>
     </row>
     <row r="3">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.454548608889991</v>
+        <v>1.020735549493281</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2979514759088823</v>
+        <v>0.5292487551381961</v>
       </c>
     </row>
     <row r="4">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.599492416586432</v>
+        <v>1.185616948123845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2528312064137618</v>
+        <v>0.4652165664161986</v>
       </c>
     </row>
     <row r="5">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4055202265397073</v>
+        <v>-0.03038753700447765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7717490743611145</v>
+        <v>0.985059805164612</v>
       </c>
     </row>
     <row r="6">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7978002274931109</v>
+        <v>0.3256695958424088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5682214960385457</v>
+        <v>0.8409488839172251</v>
       </c>
     </row>
     <row r="7">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.921434182516406</v>
+        <v>0.4888665237206218</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5100499048938656</v>
+        <v>0.7633186708373425</v>
       </c>
     </row>
     <row r="8">
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9243060755354617</v>
+        <v>-0.9344224250533978</v>
       </c>
       <c r="C8" t="n">
-        <v>1.315149235922759e-79</v>
+        <v>1.947838121985931e-80</v>
       </c>
     </row>
     <row r="9">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01848033260635619</v>
+        <v>-0.04521960741400596</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5322086385781237</v>
+        <v>0.121977320028847</v>
       </c>
     </row>
     <row r="10">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004782471404617801</v>
+        <v>0.000479362749007226</v>
       </c>
       <c r="C10" t="n">
-        <v>8.256384655353528e-283</v>
+        <v>1.162302069002544e-284</v>
       </c>
     </row>
     <row r="11">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01375032403103677</v>
+        <v>0.0133838781516977</v>
       </c>
       <c r="C11" t="n">
-        <v>3.105932063561885e-30</v>
+        <v>9.402590910901958e-29</v>
       </c>
     </row>
     <row r="12">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01138888836508762</v>
+        <v>-0.02028748703376396</v>
       </c>
       <c r="C12" t="n">
-        <v>0.726714870631717</v>
+        <v>0.533210224541776</v>
       </c>
     </row>
     <row r="13">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5192780775706811</v>
+        <v>0.4994281579707459</v>
       </c>
       <c r="C13" t="n">
-        <v>1.436197209211507e-27</v>
+        <v>1.268804433055207e-25</v>
       </c>
     </row>
     <row r="14">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3458682025148703</v>
+        <v>0.3180196736134758</v>
       </c>
       <c r="C14" t="n">
-        <v>3.254736974815026e-08</v>
+        <v>3.890585671175994e-07</v>
       </c>
     </row>
     <row r="15">
@@ -3211,10 +3211,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.692771359176057e-05</v>
+        <v>-8.700667271746867e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>1.267587810063138e-122</v>
+        <v>1.045182295817597e-122</v>
       </c>
     </row>
     <row r="16">
@@ -3224,10 +3224,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.527469521478167e-08</v>
+        <v>-2.570531484126554e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>2.899681439756331e-05</v>
+        <v>2.086520130215521e-05</v>
       </c>
     </row>
     <row r="17">
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.006300996577163917</v>
+        <v>-0.003539559730524884</v>
       </c>
       <c r="C17" t="n">
-        <v>0.502036972140424</v>
+        <v>0.7054374439696566</v>
       </c>
     </row>
     <row r="18">
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.009482996018948671</v>
+        <v>0.006776819015027161</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03682102310036817</v>
+        <v>0.1358469859754811</v>
       </c>
     </row>
     <row r="19">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3759794221695812</v>
+        <v>-0.2679372157324778</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01549555088880087</v>
+        <v>0.08438135687812047</v>
       </c>
     </row>
     <row r="20">
@@ -3276,10 +3276,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001950124181719983</v>
+        <v>-0.002127209175001287</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1343523704821429</v>
+        <v>0.1022033044686419</v>
       </c>
     </row>
     <row r="21">
@@ -3289,10 +3289,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003216215489670132</v>
+        <v>-0.002473300187391827</v>
       </c>
       <c r="C21" t="n">
-        <v>0.000819016373460545</v>
+        <v>0.01061244167076232</v>
       </c>
     </row>
     <row r="22">
@@ -3302,10 +3302,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2820195725355805</v>
+        <v>0.3162936081279609</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01178828210963476</v>
+        <v>0.004712401177796885</v>
       </c>
     </row>
     <row r="23">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.254787390606653</v>
+        <v>-1.258955324077723</v>
       </c>
       <c r="C23" t="n">
-        <v>1.728577624883861e-16</v>
+        <v>1.11909912931927e-16</v>
       </c>
     </row>
   </sheetData>
